--- a/src/test/resources/workbook/write/漂移写入测试.xlsx
+++ b/src/test/resources/workbook/write/漂移写入测试.xlsx
@@ -67,7 +67,7 @@
     <t>#{schoolName}</t>
   </si>
   <si>
-    <t>#{schoolYears}</t>
+    <t>#{schoolYears}年</t>
   </si>
   <si>
     <t>#{graduate}</t>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/test/resources/workbook/write/漂移写入测试.xlsx
+++ b/src/test/resources/workbook/write/漂移写入测试.xlsx
@@ -97,7 +97,7 @@
     <t>录入时间：</t>
   </si>
   <si>
-    <t>${AXOLOTL_CREATE_TIME}</t>
+    <t>${AXOLOTL_CREATE_DATE}</t>
   </si>
   <si>
     <t>授权人：</t>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/test/resources/workbook/write/漂移写入测试.xlsx
+++ b/src/test/resources/workbook/write/漂移写入测试.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>漂移写入测试示例</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>#{salary}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>合并空</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
   <si>
     <t>录入时间：</t>
@@ -787,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,8 +827,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,20 +1147,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1" spans="1:7">
+    <row r="1" ht="60" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1170,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1170,14 +1186,15 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28" customHeight="1" spans="1:7">
+    <row r="3" ht="28" customHeight="1" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1187,8 +1204,9 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1198,12 +1216,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1213,12 +1232,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
+    <row r="6" ht="27" customHeight="1" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1228,8 +1248,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1239,12 +1260,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1254,48 +1276,66 @@
         <v>19</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
